--- a/VennOutput/Trimmed_FOURWAY_Combined_Output.xlsx
+++ b/VennOutput/Trimmed_FOURWAY_Combined_Output.xlsx
@@ -1820,27 +1820,27 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Case No.MODERNA</t>
+          <t>Case No.MODERNA_MONO</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>PRR.MODERNA</t>
+          <t>PRR.MODERNA_MONO</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of cases.MODERNA</t>
+          <t>Percentage of cases.MODERNA_MONO</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Xsquared.MODERNA</t>
+          <t>Xsquared.MODERNA_MONO</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Significance.MODERNA</t>
+          <t>Significance.MODERNA_MONO</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
